--- a/opening/opening.xlsx
+++ b/opening/opening.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,12 +549,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompleti</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
@@ -566,29 +566,29 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>RiparazioneNonPrevista</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonPrevista</t>
+          <t>RiparazioneVenduta</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneVenduta</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>AvvioRiparazione</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
@@ -617,29 +617,29 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>RiparazioneNonVenduta</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonVenduta</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
@@ -651,12 +651,12 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
     </row>
@@ -719,12 +719,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>NessunServizio</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>NessunServizio</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -753,194 +753,194 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>InteressatoRiparazione</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>NonInteressatoRiparazione</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>TimerScaduto</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>SelfCare</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>InteressatoRiparazione</t>
+          <t>NessunServizio</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>NonInteressatoRiparazione</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>TimerScaduto</t>
+          <t>SelfCareEseguito</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -952,170 +952,153 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
+          <t>InvioLinkSelfCare</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>SelfCareNonEseguito</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
           <t>SceltaAutomaticaServizio</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>SopralluogoPCE</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
+          <t>InvioLinkSelfCare</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>TimerScaduto</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
           <t>SceltaAutomaticaServizio</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Visio</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SelfCare</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>NessunServizio</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
+          <t>SceltaManualeServizio</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
           <t>InvioLinkSelfCare</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SelfCareEseguito</t>
-        </is>
-      </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SelfCareNonEseguito</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>InvioLinkSelfCare</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>TimerScaduto</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
